--- a/Container/Data/DowntimeData.xlsx
+++ b/Container/Data/DowntimeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87EE8B2-83EC-4231-BA82-81EEB1B87DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB05F7AD-0171-449C-B7C3-2539E32C9D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Handlung</t>
   </si>
@@ -36,9 +36,6 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Musizieren</t>
-  </si>
-  <si>
     <t>cha</t>
   </si>
   <si>
@@ -58,6 +55,63 @@
   </si>
   <si>
     <t>Skill</t>
+  </si>
+  <si>
+    <t>Auftritt</t>
+  </si>
+  <si>
+    <t>Qualifizierter Job</t>
+  </si>
+  <si>
+    <t>unqualifizierter Job</t>
+  </si>
+  <si>
+    <t>Faustkampf</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>handwerk</t>
+  </si>
+  <si>
+    <t>phy</t>
+  </si>
+  <si>
+    <t>taschendiebstahl</t>
+  </si>
+  <si>
+    <t>agi</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>unarmed</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Brauen</t>
+  </si>
+  <si>
+    <t>Baderdienste</t>
+  </si>
+  <si>
+    <t>Akrobatikauftritt</t>
+  </si>
+  <si>
+    <t>acrobatics</t>
+  </si>
+  <si>
+    <t>schlossknacken</t>
+  </si>
+  <si>
+    <t>inst</t>
+  </si>
+  <si>
+    <t>Handeln</t>
   </si>
 </sst>
 </file>
@@ -375,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.05078125" customWidth="1"/>
+    <col min="1" max="1" width="16.5234375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.20703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -398,18 +452,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -418,23 +472,148 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>275</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Container/Data/DowntimeData.xlsx
+++ b/Container/Data/DowntimeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB05F7AD-0171-449C-B7C3-2539E32C9D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3BFDDF-1F55-4F7E-9945-191EEB1C777D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Handlung</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Handeln</t>
+  </si>
+  <si>
+    <t>feilschen</t>
+  </si>
+  <si>
+    <t>alchemie</t>
+  </si>
+  <si>
+    <t>survival</t>
   </si>
 </sst>
 </file>
@@ -432,16 +441,16 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.20703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -481,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -501,7 +510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -521,7 +530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -541,7 +550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -561,7 +570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -581,17 +590,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9">
+        <v>250</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -611,9 +650,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
+      </c>
+      <c r="B11">
+        <v>350</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
